--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E9299B-FB3D-4FD3-99E4-E904B853FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A51E60-AC55-409C-90A9-5E780BF29FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
     <sheet name="editDivision" sheetId="2" r:id="rId2"/>
     <sheet name="addEmployee" sheetId="3" r:id="rId3"/>
     <sheet name="editEmployee" sheetId="4" r:id="rId4"/>
+    <sheet name="addChapter" sheetId="7" r:id="rId5"/>
+    <sheet name="addTraining" sheetId="5" r:id="rId6"/>
+    <sheet name="editTraining" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -112,7 +115,37 @@
     <t>andipratama02@gmail.com</t>
   </si>
   <si>
-    <t>Andi Pratama Aji</t>
+    <t>trainingName</t>
+  </si>
+  <si>
+    <t>Basic Software Testing</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Basic Software Testing ensures
+ software works correctly, meets requirements, 
+and is free of major defects.</t>
+  </si>
+  <si>
+    <t>basic software testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Software Testing ensures
+ </t>
+  </si>
+  <si>
+    <t>chapterName</t>
+  </si>
+  <si>
+    <t>chapterDescription</t>
+  </si>
+  <si>
+    <t>Learn SDLC &amp; STLC</t>
+  </si>
+  <si>
+    <t>belajar sdlc dan stlc dasar</t>
   </si>
 </sst>
 </file>
@@ -157,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -167,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E55FA5-0112-431A-ADFF-098AC5AF9021}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +757,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -754,4 +790,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD181E83-7BF9-4EAA-8AD4-E4E284C44DAC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA9D48-7011-44B9-A508-7541AF253141}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A51E60-AC55-409C-90A9-5E780BF29FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514F4DC-7C71-432C-A6FB-5BA71888647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="addEmployee" sheetId="3" r:id="rId3"/>
     <sheet name="editEmployee" sheetId="4" r:id="rId4"/>
     <sheet name="addChapter" sheetId="7" r:id="rId5"/>
-    <sheet name="addTraining" sheetId="5" r:id="rId6"/>
-    <sheet name="editTraining" sheetId="6" r:id="rId7"/>
+    <sheet name="addContent" sheetId="8" r:id="rId6"/>
+    <sheet name="editContent" sheetId="10" r:id="rId7"/>
+    <sheet name="editChapter" sheetId="9" r:id="rId8"/>
+    <sheet name="addTraining" sheetId="5" r:id="rId9"/>
+    <sheet name="editTraining" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -146,6 +149,30 @@
   </si>
   <si>
     <t>belajar sdlc dan stlc dasar</t>
+  </si>
+  <si>
+    <t>contentName</t>
+  </si>
+  <si>
+    <t>belajar sdlc</t>
+  </si>
+  <si>
+    <t>sldc</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>belajar sdlc dan stlc dasar dan menengah</t>
+  </si>
+  <si>
+    <t>Learn SDLC &amp; STLC tingkat lanjut</t>
+  </si>
+  <si>
+    <t>belajar sdlc untuk pemula</t>
+  </si>
+  <si>
+    <t>sldc dalam testing</t>
   </si>
 </sst>
 </file>
@@ -563,6 +590,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA9D48-7011-44B9-A508-7541AF253141}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D319F093-F08A-4F4B-85F0-86F01EFC5A38}">
   <dimension ref="A1:B2"/>
@@ -796,13 +858,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD181E83-7BF9-4EAA-8AD4-E4E284C44DAC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,6 +890,122 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C80B14-26EB-4D99-AF42-68F01AA5999A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23CB20-3310-4499-8A19-656C20AABD8D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802048C9-FA8E-4A08-A2FA-87B86B75E329}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -859,39 +1038,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA9D48-7011-44B9-A508-7541AF253141}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514F4DC-7C71-432C-A6FB-5BA71888647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE7E4BD-8D34-4219-85AE-C605E8D3F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="3885" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="10" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="addChapter" sheetId="7" r:id="rId5"/>
     <sheet name="addContent" sheetId="8" r:id="rId6"/>
     <sheet name="editContent" sheetId="10" r:id="rId7"/>
-    <sheet name="editChapter" sheetId="9" r:id="rId8"/>
-    <sheet name="addTraining" sheetId="5" r:id="rId9"/>
-    <sheet name="editTraining" sheetId="6" r:id="rId10"/>
+    <sheet name="searchEmployee" sheetId="11" r:id="rId8"/>
+    <sheet name="editChapter" sheetId="9" r:id="rId9"/>
+    <sheet name="addTraining" sheetId="5" r:id="rId10"/>
+    <sheet name="addQuestion" sheetId="13" r:id="rId11"/>
+    <sheet name="editTraining" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -166,20 +168,62 @@
     <t>belajar sdlc dan stlc dasar dan menengah</t>
   </si>
   <si>
-    <t>Learn SDLC &amp; STLC tingkat lanjut</t>
-  </si>
-  <si>
     <t>belajar sdlc untuk pemula</t>
   </si>
   <si>
     <t>sldc dalam testing</t>
+  </si>
+  <si>
+    <t>searchKeyword</t>
+  </si>
+  <si>
+    <t>expectedName</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>andi.pratama@mail.com</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>answer2</t>
+  </si>
+  <si>
+    <t>answer3</t>
+  </si>
+  <si>
+    <t>answer4</t>
+  </si>
+  <si>
+    <t>Apa itu SDLC?</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>correctAnswer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +235,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -229,6 +281,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,6 +652,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F591A-1AED-4F52-9ED9-432291B10949}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA9D48-7011-44B9-A508-7541AF253141}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -934,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23CB20-3310-4499-8A19-656C20AABD8D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -956,10 +1115,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -971,11 +1130,72 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23A88F9-D4A7-4005-9F57-34503D9DC676}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>8123456789</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="mailto:andi.pratama@mail.com" xr:uid="{DCFA51D6-9159-4847-8F7F-5FB661FC35D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802048C9-FA8E-4A08-A2FA-87B86B75E329}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,45 +1214,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE7E4BD-8D34-4219-85AE-C605E8D3F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76CB07F-8A52-4307-BA35-E49484185412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="10" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -117,9 +117,6 @@
     <t>EMP-002</t>
   </si>
   <si>
-    <t>andipratama02@gmail.com</t>
-  </si>
-  <si>
     <t>trainingName</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
   </si>
   <si>
     <t>Andi</t>
-  </si>
-  <si>
-    <t>andi.pratama@mail.com</t>
   </si>
   <si>
     <t>question</t>
@@ -269,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -286,9 +280,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,18 +658,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F591A-1AED-4F52-9ED9-432291B10949}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -698,42 +689,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -765,18 +756,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +815,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,12 +928,16 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -980,14 +975,11 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2">
-        <v>8566676111</v>
+        <v>85667866761</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -999,16 +991,13 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>19287534182</v>
+        <v>192876767534182</v>
       </c>
       <c r="I2">
         <v>2217722234</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{71C676E5-F7B2-4238-8002-46BA5A9178BA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1029,18 +1018,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1064,21 +1053,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1104,21 +1093,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1131,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23A88F9-D4A7-4005-9F57-34503D9DC676}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1160,32 +1149,13 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>8123456789</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="mailto:andi.pratama@mail.com" xr:uid="{DCFA51D6-9159-4847-8F7F-5FB661FC35D3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1206,18 +1176,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76CB07F-8A52-4307-BA35-E49484185412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E52ED1-0AC5-4DE6-9B0C-C8CFB3BC34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="addChapter" sheetId="7" r:id="rId5"/>
     <sheet name="addContent" sheetId="8" r:id="rId6"/>
     <sheet name="editContent" sheetId="10" r:id="rId7"/>
-    <sheet name="searchEmployee" sheetId="11" r:id="rId8"/>
-    <sheet name="editChapter" sheetId="9" r:id="rId9"/>
-    <sheet name="addTraining" sheetId="5" r:id="rId10"/>
-    <sheet name="addQuestion" sheetId="13" r:id="rId11"/>
-    <sheet name="editTraining" sheetId="6" r:id="rId12"/>
+    <sheet name="editChapter" sheetId="9" r:id="rId8"/>
+    <sheet name="addTraining" sheetId="5" r:id="rId9"/>
+    <sheet name="addQuestion" sheetId="13" r:id="rId10"/>
+    <sheet name="editTraining" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -169,15 +168,6 @@
   </si>
   <si>
     <t>sldc dalam testing</t>
-  </si>
-  <si>
-    <t>searchKeyword</t>
-  </si>
-  <si>
-    <t>expectedName</t>
-  </si>
-  <si>
-    <t>Andi</t>
   </si>
   <si>
     <t>question</t>
@@ -643,41 +633,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F591A-1AED-4F52-9ED9-432291B10949}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -689,42 +644,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,7 +695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA9D48-7011-44B9-A508-7541AF253141}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1119,53 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23A88F9-D4A7-4005-9F57-34503D9DC676}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802048C9-FA8E-4A08-A2FA-87B86B75E329}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,4 +1106,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1942E1-D5F6-43B9-B053-E1A1963B1482}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E52ED1-0AC5-4DE6-9B0C-C8CFB3BC34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDCB49-36FB-465A-A786-598CF36608CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -62,12 +62,6 @@
  performance.</t>
   </si>
   <si>
-    <t>division business Team</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>correctAnswer</t>
+  </si>
+  <si>
+    <t>division business Team test edit data</t>
   </si>
 </sst>
 </file>
@@ -644,42 +641,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,18 +708,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -734,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D319F093-F08A-4F4B-85F0-86F01EFC5A38}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,12 +749,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -785,54 +782,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>85666111222111</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4">
         <v>37289</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1928753418263410</v>
@@ -843,31 +840,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -899,51 +896,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>85667866761</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4">
         <v>37289</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>192876767534182</v>
@@ -973,18 +970,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1008,21 +1005,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1048,21 +1045,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1077,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802048C9-FA8E-4A08-A2FA-87B86B75E329}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1089,18 +1086,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1124,18 +1121,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDCB49-36FB-465A-A786-598CF36608CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45428EA7-CD3E-490B-A9CE-8C2303779953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>EMP-001</t>
-  </si>
-  <si>
-    <t>andipratama01@gmail.com</t>
   </si>
   <si>
     <t>student</t>
@@ -641,42 +638,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,18 +705,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D319F093-F08A-4F4B-85F0-86F01EFC5A38}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -766,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C7E7EA-597F-45E1-BC5D-ADC84701EB60}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,9 +772,10 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,64 +811,59 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>85666111222111</v>
+        <v>85666111111</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>36193</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4">
-        <v>37289</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2">
-        <v>1928753418263410</v>
+        <v>57577676744</v>
       </c>
       <c r="I2">
-        <v>221356667722234</v>
+        <v>2217722234</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{851C2D46-521F-446C-B4A8-D564A6509D93}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -928,19 +921,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>85667866761</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>37289</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>192876767534182</v>
@@ -970,18 +963,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1005,21 +998,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1045,21 +1038,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1086,18 +1079,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1121,18 +1114,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Berkas QA engineer\Bootcamp dibimbing.id\final Project Dibimbing\Final-project-automation-web\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45428EA7-CD3E-490B-A9CE-8C2303779953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CB3E9-9CCC-4894-A366-B262B83E725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5A5A1F02-D60F-45D4-9D26-0E53C2242333}"/>
   </bookViews>
   <sheets>
     <sheet name="divisionData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t xml:space="preserve">Division Name
 </t>
@@ -92,9 +92,6 @@
     <t>Andi Pratama</t>
   </si>
   <si>
-    <t>EMP-001</t>
-  </si>
-  <si>
     <t>student</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>EMP-002</t>
   </si>
   <si>
     <t>trainingName</t>
@@ -638,42 +632,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,18 +699,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C7E7EA-597F-45E1-BC5D-ADC84701EB60}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,20 +806,17 @@
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2">
         <v>85666111111</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4">
+        <v>36558</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>36193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2">
         <v>57577676744</v>
@@ -836,31 +827,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -872,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E55FA5-0112-431A-ADFF-098AC5AF9021}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,9 +872,9 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -920,23 +911,20 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2">
         <v>85667866761</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4">
         <v>37289</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>192876767534182</v>
+        <v>192877634182</v>
       </c>
       <c r="I2">
         <v>2217722234</v>
@@ -963,18 +951,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -998,21 +986,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1038,21 +1026,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1079,18 +1067,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1114,18 +1102,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
